--- a/model_one_results.xlsx
+++ b/model_one_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annef/Coding_Data_Projects/Thesis/senior-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D49093-365B-7E45-A6E3-9262088304C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B92FC-7D26-814E-9041-C1A13772D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22940" windowHeight="17500" activeTab="1" xr2:uid="{5F841C79-18B1-2541-B77B-CD20FC295126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="5.4" sheetId="3" r:id="rId2"/>
+    <sheet name="5.2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>rand_seed</t>
   </si>
@@ -53,13 +54,17 @@
   <si>
     <t>what probabiltiy base do I need for each to get an avg degree of around 5.2?</t>
   </si>
+  <si>
+    <t>what probabiltiy base do I need for each to get an avg degree of around 5.4?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -153,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,15 +170,37 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -228,24 +255,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9CCEF6D-E23C-C24F-9979-044CAA8774A6}" name="Table1" displayName="Table1" ref="A1:D140" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D140" xr:uid="{C9CCEF6D-E23C-C24F-9979-044CAA8774A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D140">
-    <sortCondition ref="B2:B140"/>
-    <sortCondition ref="C2:C140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9CCEF6D-E23C-C24F-9979-044CAA8774A6}" name="Table1" displayName="Table1" ref="A1:D433" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:D433" xr:uid="{C9CCEF6D-E23C-C24F-9979-044CAA8774A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D146">
+    <sortCondition ref="B2:B146"/>
+    <sortCondition ref="C2:C146"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{99300D68-A476-834E-8ADF-B074DDFCC1B7}" name="rand_seed"/>
     <tableColumn id="2" xr3:uid="{F66BD8EA-FFDB-F249-9322-7C7B123B4E09}" name="num_vertices"/>
     <tableColumn id="3" xr3:uid="{AC986839-7438-B54B-BBD7-10B794005C4F}" name="prob_base_num"/>
-    <tableColumn id="4" xr3:uid="{6126781F-854B-6348-98F0-2FBFAABA0A4A}" name="avg_deg" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{6126781F-854B-6348-98F0-2FBFAABA0A4A}" name="avg_deg" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{241950EE-513A-504F-80A0-B78B7680C091}" name="Table13" displayName="Table13" ref="A3:D24" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42579406-3FBF-4246-87AA-988CEF30F2D9}" name="Table134" displayName="Table134" ref="A3:D42" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:D42" xr:uid="{42579406-3FBF-4246-87AA-988CEF30F2D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D41">
+    <sortCondition ref="B4:B41"/>
+    <sortCondition ref="A4:A41"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{34D059C8-BA48-704D-9A56-9C9B1211B50B}" name="rand_seed"/>
+    <tableColumn id="2" xr3:uid="{EC4786CF-CA78-BC45-AAA7-E237C9FF91C0}" name="num_vertices"/>
+    <tableColumn id="3" xr3:uid="{151F9A27-6DEA-6640-B52C-F7FF7560707B}" name="prob_base_num"/>
+    <tableColumn id="4" xr3:uid="{2D7A069C-24E4-FB4E-ABC2-AF857F6CE536}" name="avg_deg" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{241950EE-513A-504F-80A0-B78B7680C091}" name="Table13" displayName="Table13" ref="A3:D24" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A3:D24" xr:uid="{241950EE-513A-504F-80A0-B78B7680C091}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D24">
     <sortCondition ref="B4:B24"/>
@@ -255,7 +299,7 @@
     <tableColumn id="1" xr3:uid="{E4F4E405-B677-054A-9B1E-DD434DBACF3E}" name="rand_seed"/>
     <tableColumn id="2" xr3:uid="{A679D4C1-7448-CB4F-8912-0B54D2244D88}" name="num_vertices"/>
     <tableColumn id="3" xr3:uid="{02EB20F5-D721-BC4D-9DD1-16D973BB0605}" name="prob_base_num"/>
-    <tableColumn id="4" xr3:uid="{D5B1DA37-C4FC-3E4F-BA9D-BFFE81A5F50F}" name="avg_deg" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D5B1DA37-C4FC-3E4F-BA9D-BFFE81A5F50F}" name="avg_deg" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -578,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8931A606-E808-0445-AA84-DD09B3C1613C}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D94" sqref="A94:D94"/>
+    <sheetView topLeftCell="A405" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,7 +1009,7 @@
       <c r="C27">
         <v>28</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>5.2</v>
       </c>
     </row>
@@ -979,7 +1023,7 @@
       <c r="C28">
         <v>28</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>5.3</v>
       </c>
     </row>
@@ -993,7 +1037,7 @@
       <c r="C29">
         <v>29</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1007,7 +1051,7 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>5.2</v>
       </c>
     </row>
@@ -1035,7 +1079,7 @@
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1049,7 +1093,7 @@
       <c r="C33">
         <v>30</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1133,7 +1177,7 @@
       <c r="C39" s="4">
         <v>25</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1237,33 +1281,33 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B47" s="4">
         <v>30</v>
       </c>
       <c r="C47" s="4">
-        <v>70</v>
-      </c>
-      <c r="D47" s="6">
-        <v>6.3333333333333304</v>
+        <v>100</v>
+      </c>
+      <c r="D47" s="16">
+        <v>5.0666666666666602</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B48" s="4">
         <v>30</v>
       </c>
       <c r="C48" s="4">
-        <v>80</v>
-      </c>
-      <c r="D48" s="6">
-        <v>6.2666666666666604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -1271,13 +1315,13 @@
         <v>30</v>
       </c>
       <c r="C49" s="4">
-        <v>90</v>
-      </c>
-      <c r="D49" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D49" s="6">
+        <v>6.3333333333333304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -1285,41 +1329,41 @@
         <v>30</v>
       </c>
       <c r="C50" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D50" s="6">
+        <v>6.2666666666666604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="4">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4">
+        <v>90</v>
+      </c>
+      <c r="D51" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4">
+        <v>30</v>
+      </c>
+      <c r="C52" s="4">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6">
         <v>5.7333333333333298</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>47</v>
-      </c>
-      <c r="B51" s="5">
-        <v>30</v>
-      </c>
-      <c r="C51" s="5">
-        <v>130</v>
-      </c>
-      <c r="D51" s="8">
-        <v>5.4666666700000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>47</v>
-      </c>
-      <c r="B52" s="5">
-        <v>30</v>
-      </c>
-      <c r="C52" s="5">
-        <v>140</v>
-      </c>
-      <c r="D52" s="8">
-        <v>5.3333333300000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>47</v>
       </c>
@@ -1327,153 +1371,157 @@
         <v>30</v>
       </c>
       <c r="C53" s="5">
+        <v>130</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5.4666666700000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>47</v>
+      </c>
+      <c r="B54" s="5">
+        <v>30</v>
+      </c>
+      <c r="C54" s="5">
+        <v>140</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5.3333333300000003</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5">
+        <v>30</v>
+      </c>
+      <c r="C55" s="5">
+        <v>135</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5">
+        <v>30</v>
+      </c>
+      <c r="C56" s="5">
         <v>150</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D56" s="8">
         <v>5.2666666700000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>50</v>
-      </c>
-      <c r="B54" s="4">
-        <v>30</v>
-      </c>
-      <c r="C54" s="4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>50</v>
+      </c>
+      <c r="B58" s="4">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>50</v>
+      </c>
+      <c r="D58" s="15">
+        <v>5.6666666666666599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>50</v>
+      </c>
+      <c r="B59" s="4">
+        <v>30</v>
+      </c>
+      <c r="C59" s="4">
+        <v>60</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>50</v>
+      </c>
+      <c r="B60" s="4">
+        <v>30</v>
+      </c>
+      <c r="C60" s="4">
         <v>70</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D60" s="4">
         <v>5.3333333333333304</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="4">
-        <v>30</v>
-      </c>
-      <c r="C55" s="4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>50</v>
+      </c>
+      <c r="B61" s="4">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4">
         <v>80</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D61" s="4">
         <v>5.1333333333333302</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>50</v>
-      </c>
-      <c r="B56" s="4">
-        <v>30</v>
-      </c>
-      <c r="C56" s="4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>50</v>
+      </c>
+      <c r="B62" s="4">
+        <v>30</v>
+      </c>
+      <c r="C62" s="4">
         <v>90</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D62" s="4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>50</v>
-      </c>
-      <c r="B57" s="5">
-        <v>30</v>
-      </c>
-      <c r="C57" s="5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5">
+        <v>30</v>
+      </c>
+      <c r="C63" s="5">
         <v>75</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D63" s="5">
         <v>5.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>13</v>
-      </c>
-      <c r="B58">
-        <v>40</v>
-      </c>
-      <c r="C58">
-        <v>140</v>
-      </c>
-      <c r="D58">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>13</v>
-      </c>
-      <c r="B59">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>160</v>
-      </c>
-      <c r="D59">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>13</v>
-      </c>
-      <c r="B60">
-        <v>40</v>
-      </c>
-      <c r="C60">
-        <v>180</v>
-      </c>
-      <c r="D60">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>13</v>
-      </c>
-      <c r="B61">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>190</v>
-      </c>
-      <c r="D61">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>13</v>
-      </c>
-      <c r="B62">
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>200</v>
-      </c>
-      <c r="D62">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>13</v>
-      </c>
-      <c r="B63">
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>220</v>
-      </c>
-      <c r="D63">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>13</v>
       </c>
@@ -1481,94 +1529,94 @@
         <v>40</v>
       </c>
       <c r="C64">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="D64">
-        <v>5.25</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>40</v>
       </c>
       <c r="C65">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="D65">
-        <v>5.85</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>40</v>
       </c>
       <c r="C66">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D66">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>40</v>
       </c>
       <c r="C67">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="D67">
-        <v>5.55</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>40</v>
       </c>
       <c r="C68">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="D68">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>40</v>
       </c>
       <c r="C69">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="D69">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>40</v>
       </c>
       <c r="C70">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D70">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,136 +1627,136 @@
         <v>40</v>
       </c>
       <c r="C71">
+        <v>240</v>
+      </c>
+      <c r="D71">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>47</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>270</v>
+      </c>
+      <c r="D72">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>47</v>
+      </c>
+      <c r="B73">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>310</v>
+      </c>
+      <c r="D73">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>47</v>
+      </c>
+      <c r="B74">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>340</v>
+      </c>
+      <c r="D74">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>360</v>
+      </c>
+      <c r="D75">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>400</v>
+      </c>
+      <c r="D76">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>47</v>
+      </c>
+      <c r="B77">
+        <v>40</v>
+      </c>
+      <c r="C77">
         <v>420</v>
       </c>
-      <c r="D71">
+      <c r="D77">
         <v>5.2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="9">
-        <v>50</v>
-      </c>
-      <c r="B72" s="9">
-        <v>40</v>
-      </c>
-      <c r="C72" s="9">
-        <v>100</v>
-      </c>
-      <c r="D72" s="9">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>50</v>
+      </c>
+      <c r="B78" s="9">
+        <v>40</v>
+      </c>
+      <c r="C78" s="9">
+        <v>100</v>
+      </c>
+      <c r="D78" s="9">
         <v>5.5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="9">
-        <v>50</v>
-      </c>
-      <c r="B73" s="9">
-        <v>40</v>
-      </c>
-      <c r="C73" s="9">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>50</v>
+      </c>
+      <c r="B79" s="9">
+        <v>40</v>
+      </c>
+      <c r="C79" s="9">
         <v>120</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D79" s="9">
         <v>5.25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="9">
-        <v>50</v>
-      </c>
-      <c r="B74" s="9">
-        <v>40</v>
-      </c>
-      <c r="C74" s="9">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>50</v>
+      </c>
+      <c r="B80" s="9">
+        <v>40</v>
+      </c>
+      <c r="C80" s="9">
         <v>180</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D80" s="9">
         <v>4.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>50</v>
-      </c>
-      <c r="B75" s="5">
-        <v>50</v>
-      </c>
-      <c r="C75" s="5">
-        <v>310</v>
-      </c>
-      <c r="D75" s="5">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>50</v>
-      </c>
-      <c r="B76" s="5">
-        <v>50</v>
-      </c>
-      <c r="C76" s="5">
-        <v>340</v>
-      </c>
-      <c r="D76" s="5">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>50</v>
-      </c>
-      <c r="B77" s="5">
-        <v>50</v>
-      </c>
-      <c r="C77" s="5">
-        <v>360</v>
-      </c>
-      <c r="D77" s="5">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>50</v>
-      </c>
-      <c r="B78" s="5">
-        <v>50</v>
-      </c>
-      <c r="C78" s="5">
-        <v>400</v>
-      </c>
-      <c r="D78" s="5">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>50</v>
-      </c>
-      <c r="B79" s="5">
-        <v>50</v>
-      </c>
-      <c r="C79" s="5">
-        <v>420</v>
-      </c>
-      <c r="D79" s="5">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>50</v>
-      </c>
-      <c r="B80" s="5">
-        <v>50</v>
-      </c>
-      <c r="C80" s="5">
-        <v>450</v>
-      </c>
-      <c r="D80" s="5">
-        <v>5.24</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,10 +1767,10 @@
         <v>50</v>
       </c>
       <c r="C81" s="5">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="D81" s="5">
-        <v>5.2</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,94 +1781,94 @@
         <v>50</v>
       </c>
       <c r="C82" s="5">
+        <v>340</v>
+      </c>
+      <c r="D82" s="5">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>50</v>
+      </c>
+      <c r="B83" s="5">
+        <v>50</v>
+      </c>
+      <c r="C83" s="5">
+        <v>360</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>50</v>
+      </c>
+      <c r="B84" s="5">
+        <v>50</v>
+      </c>
+      <c r="C84" s="5">
+        <v>400</v>
+      </c>
+      <c r="D84" s="5">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>50</v>
+      </c>
+      <c r="B85" s="5">
+        <v>50</v>
+      </c>
+      <c r="C85" s="5">
+        <v>420</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>50</v>
+      </c>
+      <c r="B86" s="5">
+        <v>50</v>
+      </c>
+      <c r="C86" s="5">
+        <v>450</v>
+      </c>
+      <c r="D86" s="5">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>50</v>
+      </c>
+      <c r="B87" s="5">
+        <v>50</v>
+      </c>
+      <c r="C87" s="5">
+        <v>470</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>50</v>
+      </c>
+      <c r="B88" s="5">
+        <v>50</v>
+      </c>
+      <c r="C88" s="5">
         <v>500</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D88" s="5">
         <v>5.08</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>47</v>
-      </c>
-      <c r="B83" s="4">
-        <v>50</v>
-      </c>
-      <c r="C83" s="4">
-        <v>270</v>
-      </c>
-      <c r="D83" s="4">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>47</v>
-      </c>
-      <c r="B84" s="4">
-        <v>50</v>
-      </c>
-      <c r="C84" s="4">
-        <v>310</v>
-      </c>
-      <c r="D84" s="4">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>47</v>
-      </c>
-      <c r="B85" s="4">
-        <v>50</v>
-      </c>
-      <c r="C85" s="4">
-        <v>340</v>
-      </c>
-      <c r="D85" s="4">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>47</v>
-      </c>
-      <c r="B86" s="4">
-        <v>50</v>
-      </c>
-      <c r="C86" s="4">
-        <v>360</v>
-      </c>
-      <c r="D86" s="4">
-        <v>5.36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>47</v>
-      </c>
-      <c r="B87" s="4">
-        <v>50</v>
-      </c>
-      <c r="C87" s="4">
-        <v>400</v>
-      </c>
-      <c r="D87" s="4">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>47</v>
-      </c>
-      <c r="B88" s="4">
-        <v>50</v>
-      </c>
-      <c r="C88" s="4">
-        <v>420</v>
-      </c>
-      <c r="D88" s="4">
-        <v>5.24</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,303 +1879,4842 @@
         <v>50</v>
       </c>
       <c r="C89" s="4">
+        <v>270</v>
+      </c>
+      <c r="D89" s="4">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>47</v>
+      </c>
+      <c r="B90" s="4">
+        <v>50</v>
+      </c>
+      <c r="C90" s="4">
+        <v>310</v>
+      </c>
+      <c r="D90" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>47</v>
+      </c>
+      <c r="B91" s="4">
+        <v>50</v>
+      </c>
+      <c r="C91" s="4">
+        <v>340</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>47</v>
+      </c>
+      <c r="B92" s="4">
+        <v>50</v>
+      </c>
+      <c r="C92" s="4">
+        <v>360</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>47</v>
+      </c>
+      <c r="B93" s="4">
+        <v>50</v>
+      </c>
+      <c r="C93" s="4">
+        <v>400</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>47</v>
+      </c>
+      <c r="B94" s="4">
+        <v>50</v>
+      </c>
+      <c r="C94" s="4">
+        <v>420</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>47</v>
+      </c>
+      <c r="B95" s="4">
+        <v>50</v>
+      </c>
+      <c r="C95" s="4">
         <v>450</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D95" s="4">
         <v>5.08</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>13</v>
       </c>
-      <c r="B90" s="5">
-        <v>50</v>
-      </c>
-      <c r="C90" s="5">
+      <c r="B96" s="5">
+        <v>50</v>
+      </c>
+      <c r="C96" s="5">
         <v>500</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D96" s="5">
         <v>5.72</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>13</v>
       </c>
-      <c r="B91" s="5">
-        <v>50</v>
-      </c>
-      <c r="C91" s="5">
+      <c r="B97" s="5">
+        <v>50</v>
+      </c>
+      <c r="C97" s="5">
         <v>550</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D97" s="5">
         <v>5.68</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>13</v>
       </c>
-      <c r="B92" s="5">
-        <v>50</v>
-      </c>
-      <c r="C92" s="5">
+      <c r="B98" s="5">
+        <v>50</v>
+      </c>
+      <c r="C98" s="5">
         <v>600</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D98" s="5">
         <v>5.68</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>13</v>
       </c>
-      <c r="B93" s="5">
-        <v>50</v>
-      </c>
-      <c r="C93" s="5">
+      <c r="B99" s="5">
+        <v>50</v>
+      </c>
+      <c r="C99" s="5">
         <v>700</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D99" s="5">
         <v>5.32</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>13</v>
       </c>
-      <c r="B94" s="5">
-        <v>50</v>
-      </c>
-      <c r="C94" s="5">
+      <c r="B100" s="5">
+        <v>50</v>
+      </c>
+      <c r="C100" s="5">
         <v>750</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D100" s="5">
         <v>5.24</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D100" s="3"/>
-    </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D101" s="3"/>
+      <c r="A101">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>101</v>
+      </c>
+      <c r="D101">
+        <v>5.45</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D102" s="3"/>
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>102</v>
+      </c>
+      <c r="D102">
+        <v>5.45</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D103" s="3"/>
+      <c r="A103">
+        <v>50</v>
+      </c>
+      <c r="B103">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>103</v>
+      </c>
+      <c r="D103">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D104" s="3"/>
+      <c r="A104">
+        <v>50</v>
+      </c>
+      <c r="B104">
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <v>104</v>
+      </c>
+      <c r="D104">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>50</v>
+      </c>
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>105</v>
+      </c>
+      <c r="D105">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>50</v>
+      </c>
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>110</v>
+      </c>
+      <c r="D106">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>50</v>
+      </c>
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>115</v>
+      </c>
+      <c r="D107">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>50</v>
+      </c>
+      <c r="B108" s="4">
+        <v>50</v>
+      </c>
+      <c r="C108" s="4">
+        <v>429</v>
+      </c>
+      <c r="D108" s="4">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="A109" s="4">
+        <v>50</v>
+      </c>
+      <c r="B109" s="4">
+        <v>50</v>
+      </c>
+      <c r="C109" s="4">
+        <v>425</v>
+      </c>
+      <c r="D109" s="4">
+        <v>5.48</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="A110" s="4">
+        <v>50</v>
+      </c>
+      <c r="B110" s="4">
+        <v>50</v>
+      </c>
+      <c r="C110" s="4">
+        <v>429</v>
+      </c>
+      <c r="D110" s="4">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="8"/>
+      <c r="A111" s="4">
+        <v>50</v>
+      </c>
+      <c r="B111" s="4">
+        <v>50</v>
+      </c>
+      <c r="C111" s="4">
+        <v>430</v>
+      </c>
+      <c r="D111" s="4">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="6"/>
+      <c r="A112" s="4">
+        <v>50</v>
+      </c>
+      <c r="B112" s="4">
+        <v>50</v>
+      </c>
+      <c r="C112" s="4">
+        <v>435</v>
+      </c>
+      <c r="D112" s="4">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="6"/>
+      <c r="A113" s="4">
+        <v>50</v>
+      </c>
+      <c r="B113" s="4">
+        <v>50</v>
+      </c>
+      <c r="C113" s="4">
+        <v>440</v>
+      </c>
+      <c r="D113" s="6">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="6"/>
+      <c r="A114" s="5">
+        <v>13</v>
+      </c>
+      <c r="B114" s="5">
+        <v>50</v>
+      </c>
+      <c r="C114" s="5">
+        <v>600</v>
+      </c>
+      <c r="D114" s="5">
+        <v>5.68</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="6"/>
+      <c r="A115" s="5">
+        <v>13</v>
+      </c>
+      <c r="B115" s="5">
+        <v>50</v>
+      </c>
+      <c r="C115" s="5">
+        <v>620</v>
+      </c>
+      <c r="D115" s="5">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="8"/>
+      <c r="A116" s="5">
+        <v>13</v>
+      </c>
+      <c r="B116" s="5">
+        <v>50</v>
+      </c>
+      <c r="C116" s="5">
+        <v>630</v>
+      </c>
+      <c r="D116" s="5">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="6"/>
+      <c r="A117" s="5">
+        <v>13</v>
+      </c>
+      <c r="B117" s="5">
+        <v>50</v>
+      </c>
+      <c r="C117" s="5">
+        <v>650</v>
+      </c>
+      <c r="D117" s="5">
+        <v>5.48</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="6"/>
+      <c r="A118" s="5">
+        <v>13</v>
+      </c>
+      <c r="B118" s="5">
+        <v>50</v>
+      </c>
+      <c r="C118" s="5">
+        <v>660</v>
+      </c>
+      <c r="D118" s="5">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="6"/>
+      <c r="A119" s="5">
+        <v>13</v>
+      </c>
+      <c r="B119" s="5">
+        <v>50</v>
+      </c>
+      <c r="C119" s="5">
+        <v>670</v>
+      </c>
+      <c r="D119" s="5">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="6"/>
+      <c r="A120" s="5">
+        <v>13</v>
+      </c>
+      <c r="B120" s="5">
+        <v>50</v>
+      </c>
+      <c r="C120" s="5">
+        <v>680</v>
+      </c>
+      <c r="D120" s="5">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="6"/>
+      <c r="A121" s="5">
+        <v>13</v>
+      </c>
+      <c r="B121" s="5">
+        <v>50</v>
+      </c>
+      <c r="C121" s="5">
+        <v>690</v>
+      </c>
+      <c r="D121" s="5">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="6"/>
+      <c r="A122">
+        <v>69</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="8"/>
+      <c r="A123">
+        <v>69</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>17</v>
+      </c>
+      <c r="D123">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="8"/>
+      <c r="A124">
+        <v>69</v>
+      </c>
+      <c r="B124">
+        <v>20</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="6"/>
+      <c r="A125">
+        <v>69</v>
+      </c>
+      <c r="B125">
+        <v>20</v>
+      </c>
+      <c r="C125">
+        <v>23</v>
+      </c>
+      <c r="D125">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="8"/>
+      <c r="A126">
+        <v>69</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>25</v>
+      </c>
+      <c r="D126">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="6"/>
+      <c r="A127">
+        <v>69</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="6"/>
+      <c r="A128">
+        <v>69</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>30</v>
+      </c>
+      <c r="D128">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="A129">
+        <v>69</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>35</v>
+      </c>
+      <c r="D129">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="A130">
+        <v>49</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="A131">
+        <v>49</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>17</v>
+      </c>
+      <c r="D131">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="A132">
+        <v>49</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="A133">
+        <v>49</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="A134">
+        <v>49</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>25</v>
+      </c>
+      <c r="D134">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="A135">
+        <v>49</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="A136">
+        <v>49</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+      <c r="D136">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="A137">
+        <v>49</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
+      </c>
+      <c r="C137">
+        <v>35</v>
+      </c>
+      <c r="D137">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="A138" s="9">
+        <v>49</v>
+      </c>
+      <c r="B138" s="9">
+        <v>20</v>
+      </c>
+      <c r="C138" s="9">
+        <v>33</v>
+      </c>
+      <c r="D138" s="9">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="A139" s="5">
+        <v>49</v>
+      </c>
+      <c r="B139" s="5">
+        <v>30</v>
+      </c>
+      <c r="C139" s="5">
+        <v>40</v>
+      </c>
+      <c r="D139" s="5">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="A140" s="5">
+        <v>49</v>
+      </c>
+      <c r="B140" s="5">
+        <v>30</v>
+      </c>
+      <c r="C140" s="5">
+        <v>50</v>
+      </c>
+      <c r="D140" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>49</v>
+      </c>
+      <c r="B141" s="5">
+        <v>30</v>
+      </c>
+      <c r="C141" s="5">
+        <v>60</v>
+      </c>
+      <c r="D141" s="5">
+        <v>6.4666666700000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>49</v>
+      </c>
+      <c r="B142" s="5">
+        <v>30</v>
+      </c>
+      <c r="C142" s="5">
+        <v>70</v>
+      </c>
+      <c r="D142" s="5">
+        <v>6.06666667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>49</v>
+      </c>
+      <c r="B143" s="5">
+        <v>30</v>
+      </c>
+      <c r="C143" s="5">
+        <v>80</v>
+      </c>
+      <c r="D143" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>49</v>
+      </c>
+      <c r="B144" s="5">
+        <v>30</v>
+      </c>
+      <c r="C144" s="5">
+        <v>90</v>
+      </c>
+      <c r="D144" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>49</v>
+      </c>
+      <c r="B145" s="5">
+        <v>30</v>
+      </c>
+      <c r="C145" s="5">
+        <v>100</v>
+      </c>
+      <c r="D145" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>49</v>
+      </c>
+      <c r="B146" s="5">
+        <v>30</v>
+      </c>
+      <c r="C146" s="5">
+        <v>110</v>
+      </c>
+      <c r="D146" s="5">
+        <v>5.3333333300000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>49</v>
+      </c>
+      <c r="B147" s="5">
+        <v>30</v>
+      </c>
+      <c r="C147" s="5">
+        <v>120</v>
+      </c>
+      <c r="D147" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>49</v>
+      </c>
+      <c r="B148" s="5">
+        <v>30</v>
+      </c>
+      <c r="C148" s="5">
+        <v>130</v>
+      </c>
+      <c r="D148" s="8">
+        <v>5.06666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>49</v>
+      </c>
+      <c r="B149" s="5">
+        <v>30</v>
+      </c>
+      <c r="C149" s="5">
+        <v>150</v>
+      </c>
+      <c r="D149" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>49</v>
+      </c>
+      <c r="B150" s="5">
+        <v>30</v>
+      </c>
+      <c r="C150" s="5">
+        <v>160</v>
+      </c>
+      <c r="D150" s="8">
+        <v>4.93333333</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>49</v>
+      </c>
+      <c r="B151" s="5">
+        <v>30</v>
+      </c>
+      <c r="C151" s="5">
+        <v>105</v>
+      </c>
+      <c r="D151" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>69</v>
+      </c>
+      <c r="B152" s="5">
+        <v>30</v>
+      </c>
+      <c r="C152" s="5">
+        <v>40</v>
+      </c>
+      <c r="D152" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>69</v>
+      </c>
+      <c r="B153" s="5">
+        <v>30</v>
+      </c>
+      <c r="C153" s="5">
+        <v>50</v>
+      </c>
+      <c r="D153" s="8">
+        <v>5.6666666699999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>69</v>
+      </c>
+      <c r="B154" s="5">
+        <v>30</v>
+      </c>
+      <c r="C154" s="5">
+        <v>60</v>
+      </c>
+      <c r="D154" s="8">
+        <v>5.5333333299999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>69</v>
+      </c>
+      <c r="B155" s="5">
+        <v>30</v>
+      </c>
+      <c r="C155" s="5">
+        <v>70</v>
+      </c>
+      <c r="D155" s="8">
+        <v>5.4666666700000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>69</v>
+      </c>
+      <c r="B156" s="5">
+        <v>30</v>
+      </c>
+      <c r="C156" s="5">
+        <v>80</v>
+      </c>
+      <c r="D156" s="8">
+        <v>5.1333333300000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>69</v>
+      </c>
+      <c r="B157" s="5">
+        <v>30</v>
+      </c>
+      <c r="C157" s="5">
+        <v>90</v>
+      </c>
+      <c r="D157" s="8">
+        <v>4.93333333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>69</v>
+      </c>
+      <c r="B158" s="5">
+        <v>30</v>
+      </c>
+      <c r="C158" s="5">
+        <v>100</v>
+      </c>
+      <c r="D158" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>69</v>
+      </c>
+      <c r="B159" s="5">
+        <v>30</v>
+      </c>
+      <c r="C159" s="5">
+        <v>105</v>
+      </c>
+      <c r="D159" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>69</v>
+      </c>
+      <c r="B160" s="5">
+        <v>30</v>
+      </c>
+      <c r="C160" s="5">
+        <v>110</v>
+      </c>
+      <c r="D160" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>69</v>
+      </c>
+      <c r="B161" s="5">
+        <v>30</v>
+      </c>
+      <c r="C161" s="5">
+        <v>120</v>
+      </c>
+      <c r="D161" s="8">
+        <v>4.5333333299999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>69</v>
+      </c>
+      <c r="B162" s="5">
+        <v>30</v>
+      </c>
+      <c r="C162" s="5">
+        <v>130</v>
+      </c>
+      <c r="D162" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>69</v>
+      </c>
+      <c r="B163" s="5">
+        <v>30</v>
+      </c>
+      <c r="C163" s="5">
+        <v>150</v>
+      </c>
+      <c r="D163" s="8">
+        <v>4.1333333300000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>69</v>
+      </c>
+      <c r="B164" s="5">
+        <v>30</v>
+      </c>
+      <c r="C164" s="5">
+        <v>160</v>
+      </c>
+      <c r="D164" s="8">
+        <v>4.06666667</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>69</v>
+      </c>
+      <c r="B165" s="5">
+        <v>30</v>
+      </c>
+      <c r="C165" s="5">
+        <v>72</v>
+      </c>
+      <c r="D165" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>69</v>
+      </c>
+      <c r="B166" s="5">
+        <v>30</v>
+      </c>
+      <c r="C166" s="5">
+        <v>73</v>
+      </c>
+      <c r="D166" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="9">
+        <v>69</v>
+      </c>
+      <c r="B167" s="9">
+        <v>40</v>
+      </c>
+      <c r="C167" s="9">
+        <v>100</v>
+      </c>
+      <c r="D167" s="10">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="9">
+        <v>69</v>
+      </c>
+      <c r="B168" s="9">
+        <v>40</v>
+      </c>
+      <c r="C168" s="9">
+        <v>120</v>
+      </c>
+      <c r="D168" s="10">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="9">
+        <v>69</v>
+      </c>
+      <c r="B169" s="9">
+        <v>40</v>
+      </c>
+      <c r="C169" s="9">
+        <v>180</v>
+      </c>
+      <c r="D169" s="10">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="9">
+        <v>69</v>
+      </c>
+      <c r="B170" s="9">
+        <v>40</v>
+      </c>
+      <c r="C170" s="9">
+        <v>200</v>
+      </c>
+      <c r="D170" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="9">
+        <v>69</v>
+      </c>
+      <c r="B171" s="9">
+        <v>40</v>
+      </c>
+      <c r="C171" s="9">
+        <v>240</v>
+      </c>
+      <c r="D171" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="9">
+        <v>69</v>
+      </c>
+      <c r="B172" s="9">
+        <v>40</v>
+      </c>
+      <c r="C172" s="9">
+        <v>270</v>
+      </c>
+      <c r="D172" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="9">
+        <v>69</v>
+      </c>
+      <c r="B173" s="9">
+        <v>40</v>
+      </c>
+      <c r="C173" s="9">
+        <v>310</v>
+      </c>
+      <c r="D173" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="9">
+        <v>69</v>
+      </c>
+      <c r="B174" s="9">
+        <v>40</v>
+      </c>
+      <c r="C174" s="9">
+        <v>340</v>
+      </c>
+      <c r="D174" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
+        <v>69</v>
+      </c>
+      <c r="B175" s="9">
+        <v>40</v>
+      </c>
+      <c r="C175" s="9">
+        <v>360</v>
+      </c>
+      <c r="D175" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="9">
+        <v>69</v>
+      </c>
+      <c r="B176" s="9">
+        <v>40</v>
+      </c>
+      <c r="C176" s="9">
+        <v>128</v>
+      </c>
+      <c r="D176" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
+        <v>49</v>
+      </c>
+      <c r="B177" s="9">
+        <v>40</v>
+      </c>
+      <c r="C177" s="9">
+        <v>100</v>
+      </c>
+      <c r="D177" s="10">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="9">
+        <v>49</v>
+      </c>
+      <c r="B178" s="9">
+        <v>40</v>
+      </c>
+      <c r="C178" s="9">
+        <v>120</v>
+      </c>
+      <c r="D178" s="10">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="9">
+        <v>49</v>
+      </c>
+      <c r="B179" s="9">
+        <v>40</v>
+      </c>
+      <c r="C179" s="9">
+        <v>125</v>
+      </c>
+      <c r="D179" s="10">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="9">
+        <v>49</v>
+      </c>
+      <c r="B180" s="9">
+        <v>40</v>
+      </c>
+      <c r="C180" s="9">
+        <v>128</v>
+      </c>
+      <c r="D180" s="10">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="9">
+        <v>49</v>
+      </c>
+      <c r="B181" s="9">
+        <v>40</v>
+      </c>
+      <c r="C181" s="9">
+        <v>129</v>
+      </c>
+      <c r="D181" s="10">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="9">
+        <v>49</v>
+      </c>
+      <c r="B182" s="9">
+        <v>40</v>
+      </c>
+      <c r="C182" s="9">
+        <v>130</v>
+      </c>
+      <c r="D182" s="10">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
+        <v>49</v>
+      </c>
+      <c r="B183" s="9">
+        <v>40</v>
+      </c>
+      <c r="C183" s="9">
+        <v>135</v>
+      </c>
+      <c r="D183" s="10">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="9">
+        <v>49</v>
+      </c>
+      <c r="B184" s="9">
+        <v>40</v>
+      </c>
+      <c r="C184" s="9">
+        <v>140</v>
+      </c>
+      <c r="D184" s="10">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
+        <v>49</v>
+      </c>
+      <c r="B185" s="9">
+        <v>40</v>
+      </c>
+      <c r="C185" s="9">
+        <v>145</v>
+      </c>
+      <c r="D185" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="9">
+        <v>49</v>
+      </c>
+      <c r="B186" s="9">
+        <v>40</v>
+      </c>
+      <c r="C186" s="9">
+        <v>180</v>
+      </c>
+      <c r="D186" s="10">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="9">
+        <v>49</v>
+      </c>
+      <c r="B187" s="9">
+        <v>40</v>
+      </c>
+      <c r="C187" s="9">
+        <v>200</v>
+      </c>
+      <c r="D187" s="10">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="9">
+        <v>49</v>
+      </c>
+      <c r="B188" s="9">
+        <v>40</v>
+      </c>
+      <c r="C188" s="9">
+        <v>240</v>
+      </c>
+      <c r="D188" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="9">
+        <v>49</v>
+      </c>
+      <c r="B189" s="9">
+        <v>40</v>
+      </c>
+      <c r="C189" s="9">
+        <v>270</v>
+      </c>
+      <c r="D189" s="10">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="9">
+        <v>49</v>
+      </c>
+      <c r="B190" s="9">
+        <v>40</v>
+      </c>
+      <c r="C190" s="9">
+        <v>310</v>
+      </c>
+      <c r="D190" s="10">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="9">
+        <v>49</v>
+      </c>
+      <c r="B191" s="9">
+        <v>40</v>
+      </c>
+      <c r="C191" s="9">
+        <v>340</v>
+      </c>
+      <c r="D191" s="10">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="9">
+        <v>49</v>
+      </c>
+      <c r="B192" s="9">
+        <v>40</v>
+      </c>
+      <c r="C192" s="9">
+        <v>360</v>
+      </c>
+      <c r="D192" s="10">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="9">
+        <v>49</v>
+      </c>
+      <c r="B193" s="9">
+        <v>40</v>
+      </c>
+      <c r="C193" s="9">
+        <v>201</v>
+      </c>
+      <c r="D193" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="9">
+        <v>49</v>
+      </c>
+      <c r="B194" s="9">
+        <v>40</v>
+      </c>
+      <c r="C194" s="9">
+        <v>202</v>
+      </c>
+      <c r="D194" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>49</v>
+      </c>
+      <c r="B195" s="5">
+        <v>50</v>
+      </c>
+      <c r="C195" s="5">
+        <v>300</v>
+      </c>
+      <c r="D195" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>49</v>
+      </c>
+      <c r="B196" s="5">
+        <v>50</v>
+      </c>
+      <c r="C196" s="5">
+        <v>320</v>
+      </c>
+      <c r="D196" s="8">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>49</v>
+      </c>
+      <c r="B197" s="5">
+        <v>50</v>
+      </c>
+      <c r="C197" s="5">
+        <v>350</v>
+      </c>
+      <c r="D197" s="8">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>49</v>
+      </c>
+      <c r="B198" s="5">
+        <v>50</v>
+      </c>
+      <c r="C198" s="5">
+        <v>370</v>
+      </c>
+      <c r="D198" s="8">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>49</v>
+      </c>
+      <c r="B199" s="5">
+        <v>50</v>
+      </c>
+      <c r="C199" s="5">
+        <v>400</v>
+      </c>
+      <c r="D199" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>49</v>
+      </c>
+      <c r="B200" s="5">
+        <v>50</v>
+      </c>
+      <c r="C200" s="5">
+        <v>420</v>
+      </c>
+      <c r="D200" s="8">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>49</v>
+      </c>
+      <c r="B201" s="5">
+        <v>50</v>
+      </c>
+      <c r="C201" s="5">
+        <v>450</v>
+      </c>
+      <c r="D201" s="8">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>49</v>
+      </c>
+      <c r="B202" s="5">
+        <v>50</v>
+      </c>
+      <c r="C202" s="5">
+        <v>470</v>
+      </c>
+      <c r="D202" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>49</v>
+      </c>
+      <c r="B203" s="5">
+        <v>50</v>
+      </c>
+      <c r="C203" s="5">
+        <v>500</v>
+      </c>
+      <c r="D203" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>49</v>
+      </c>
+      <c r="B204" s="5">
+        <v>50</v>
+      </c>
+      <c r="C204" s="5">
+        <v>550</v>
+      </c>
+      <c r="D204" s="8">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>49</v>
+      </c>
+      <c r="B205" s="5">
+        <v>50</v>
+      </c>
+      <c r="C205" s="5">
+        <v>600</v>
+      </c>
+      <c r="D205" s="8">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>49</v>
+      </c>
+      <c r="B206" s="5">
+        <v>50</v>
+      </c>
+      <c r="C206" s="5">
+        <v>700</v>
+      </c>
+      <c r="D206" s="8">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>49</v>
+      </c>
+      <c r="B207" s="5">
+        <v>50</v>
+      </c>
+      <c r="C207" s="5">
+        <v>750</v>
+      </c>
+      <c r="D207" s="8">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>69</v>
+      </c>
+      <c r="B208" s="5">
+        <v>50</v>
+      </c>
+      <c r="C208" s="5">
+        <v>300</v>
+      </c>
+      <c r="D208" s="8">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>69</v>
+      </c>
+      <c r="B209" s="5">
+        <v>50</v>
+      </c>
+      <c r="C209" s="5">
+        <v>320</v>
+      </c>
+      <c r="D209" s="8">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>69</v>
+      </c>
+      <c r="B210" s="5">
+        <v>50</v>
+      </c>
+      <c r="C210" s="5">
+        <v>350</v>
+      </c>
+      <c r="D210" s="8">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>69</v>
+      </c>
+      <c r="B211" s="5">
+        <v>50</v>
+      </c>
+      <c r="C211" s="5">
+        <v>370</v>
+      </c>
+      <c r="D211" s="8">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>69</v>
+      </c>
+      <c r="B212" s="5">
+        <v>50</v>
+      </c>
+      <c r="C212" s="5">
+        <v>400</v>
+      </c>
+      <c r="D212" s="8">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>69</v>
+      </c>
+      <c r="B213" s="5">
+        <v>50</v>
+      </c>
+      <c r="C213" s="5">
+        <v>420</v>
+      </c>
+      <c r="D213" s="8">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>69</v>
+      </c>
+      <c r="B214" s="5">
+        <v>50</v>
+      </c>
+      <c r="C214" s="5">
+        <v>450</v>
+      </c>
+      <c r="D214" s="8">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>69</v>
+      </c>
+      <c r="B215" s="5">
+        <v>50</v>
+      </c>
+      <c r="C215" s="5">
+        <v>470</v>
+      </c>
+      <c r="D215" s="8">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>69</v>
+      </c>
+      <c r="B216" s="5">
+        <v>50</v>
+      </c>
+      <c r="C216" s="5">
+        <v>500</v>
+      </c>
+      <c r="D216" s="8">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>69</v>
+      </c>
+      <c r="B217" s="5">
+        <v>50</v>
+      </c>
+      <c r="C217" s="5">
+        <v>550</v>
+      </c>
+      <c r="D217" s="8">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>69</v>
+      </c>
+      <c r="B218" s="5">
+        <v>50</v>
+      </c>
+      <c r="C218" s="5">
+        <v>600</v>
+      </c>
+      <c r="D218" s="8">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>69</v>
+      </c>
+      <c r="B219" s="5">
+        <v>50</v>
+      </c>
+      <c r="C219" s="5">
+        <v>700</v>
+      </c>
+      <c r="D219" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>69</v>
+      </c>
+      <c r="B220" s="5">
+        <v>50</v>
+      </c>
+      <c r="C220" s="5">
+        <v>750</v>
+      </c>
+      <c r="D220" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="5">
+        <v>69</v>
+      </c>
+      <c r="B221" s="5">
+        <v>50</v>
+      </c>
+      <c r="C221" s="5">
+        <v>325</v>
+      </c>
+      <c r="D221" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="5">
+        <v>69</v>
+      </c>
+      <c r="B222" s="5">
+        <v>50</v>
+      </c>
+      <c r="C222" s="5">
+        <v>330</v>
+      </c>
+      <c r="D222" s="8">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="5">
+        <v>9</v>
+      </c>
+      <c r="B223" s="5">
+        <v>50</v>
+      </c>
+      <c r="C223" s="5">
+        <v>300</v>
+      </c>
+      <c r="D223" s="8">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="5">
+        <v>9</v>
+      </c>
+      <c r="B224" s="5">
+        <v>50</v>
+      </c>
+      <c r="C224" s="5">
+        <v>320</v>
+      </c>
+      <c r="D224" s="8">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="5">
+        <v>9</v>
+      </c>
+      <c r="B225" s="5">
+        <v>50</v>
+      </c>
+      <c r="C225" s="5">
+        <v>325</v>
+      </c>
+      <c r="D225" s="8">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="5">
+        <v>9</v>
+      </c>
+      <c r="B226" s="5">
+        <v>50</v>
+      </c>
+      <c r="C226" s="5">
+        <v>330</v>
+      </c>
+      <c r="D226" s="8">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
+        <v>9</v>
+      </c>
+      <c r="B227" s="5">
+        <v>50</v>
+      </c>
+      <c r="C227" s="5">
+        <v>350</v>
+      </c>
+      <c r="D227" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="5">
+        <v>9</v>
+      </c>
+      <c r="B228" s="5">
+        <v>50</v>
+      </c>
+      <c r="C228" s="5">
+        <v>370</v>
+      </c>
+      <c r="D228" s="8">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="5">
+        <v>9</v>
+      </c>
+      <c r="B229" s="5">
+        <v>50</v>
+      </c>
+      <c r="C229" s="5">
+        <v>400</v>
+      </c>
+      <c r="D229" s="8">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="5">
+        <v>9</v>
+      </c>
+      <c r="B230" s="5">
+        <v>50</v>
+      </c>
+      <c r="C230" s="5">
+        <v>420</v>
+      </c>
+      <c r="D230" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
+        <v>9</v>
+      </c>
+      <c r="B231" s="5">
+        <v>50</v>
+      </c>
+      <c r="C231" s="5">
+        <v>450</v>
+      </c>
+      <c r="D231" s="8">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="5">
+        <v>9</v>
+      </c>
+      <c r="B232" s="5">
+        <v>50</v>
+      </c>
+      <c r="C232" s="5">
+        <v>470</v>
+      </c>
+      <c r="D232" s="8">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="5">
+        <v>9</v>
+      </c>
+      <c r="B233" s="5">
+        <v>50</v>
+      </c>
+      <c r="C233" s="5">
+        <v>500</v>
+      </c>
+      <c r="D233" s="8">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="5">
+        <v>9</v>
+      </c>
+      <c r="B234" s="5">
+        <v>50</v>
+      </c>
+      <c r="C234" s="5">
+        <v>550</v>
+      </c>
+      <c r="D234" s="8">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="5">
+        <v>9</v>
+      </c>
+      <c r="B235" s="5">
+        <v>50</v>
+      </c>
+      <c r="C235" s="5">
+        <v>600</v>
+      </c>
+      <c r="D235" s="8">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>9</v>
+      </c>
+      <c r="B236" s="5">
+        <v>50</v>
+      </c>
+      <c r="C236" s="5">
+        <v>700</v>
+      </c>
+      <c r="D236" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>9</v>
+      </c>
+      <c r="B237" s="5">
+        <v>50</v>
+      </c>
+      <c r="C237" s="5">
+        <v>750</v>
+      </c>
+      <c r="D237" s="8">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>23</v>
+      </c>
+      <c r="B238" s="5">
+        <v>50</v>
+      </c>
+      <c r="C238" s="5">
+        <v>300</v>
+      </c>
+      <c r="D238" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="E238" s="9"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>23</v>
+      </c>
+      <c r="B239" s="5">
+        <v>50</v>
+      </c>
+      <c r="C239" s="5">
+        <v>320</v>
+      </c>
+      <c r="D239" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="E239" s="9"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>23</v>
+      </c>
+      <c r="B240" s="5">
+        <v>50</v>
+      </c>
+      <c r="C240" s="5">
+        <v>325</v>
+      </c>
+      <c r="D240" s="8">
+        <v>5.56</v>
+      </c>
+      <c r="E240" s="9"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>23</v>
+      </c>
+      <c r="B241" s="5">
+        <v>50</v>
+      </c>
+      <c r="C241" s="5">
+        <v>330</v>
+      </c>
+      <c r="D241" s="8">
+        <v>5.56</v>
+      </c>
+      <c r="E241" s="9"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>23</v>
+      </c>
+      <c r="B242" s="5">
+        <v>50</v>
+      </c>
+      <c r="C242" s="5">
+        <v>350</v>
+      </c>
+      <c r="D242" s="8">
+        <v>5.48</v>
+      </c>
+      <c r="E242" s="9"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>23</v>
+      </c>
+      <c r="B243" s="5">
+        <v>50</v>
+      </c>
+      <c r="C243" s="5">
+        <v>370</v>
+      </c>
+      <c r="D243" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="E243" s="9"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>23</v>
+      </c>
+      <c r="B244" s="5">
+        <v>50</v>
+      </c>
+      <c r="C244" s="5">
+        <v>400</v>
+      </c>
+      <c r="D244" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="E244" s="9"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>23</v>
+      </c>
+      <c r="B245" s="5">
+        <v>50</v>
+      </c>
+      <c r="C245" s="5">
+        <v>420</v>
+      </c>
+      <c r="D245" s="8">
+        <v>5</v>
+      </c>
+      <c r="E245" s="9"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>23</v>
+      </c>
+      <c r="B246" s="5">
+        <v>50</v>
+      </c>
+      <c r="C246" s="5">
+        <v>450</v>
+      </c>
+      <c r="D246" s="8">
+        <v>4.76</v>
+      </c>
+      <c r="E246" s="9"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>23</v>
+      </c>
+      <c r="B247" s="5">
+        <v>50</v>
+      </c>
+      <c r="C247" s="5">
+        <v>470</v>
+      </c>
+      <c r="D247" s="8">
+        <v>4.72</v>
+      </c>
+      <c r="E247" s="9"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>23</v>
+      </c>
+      <c r="B248" s="5">
+        <v>50</v>
+      </c>
+      <c r="C248" s="5">
+        <v>500</v>
+      </c>
+      <c r="D248" s="8">
+        <v>4.68</v>
+      </c>
+      <c r="E248" s="9"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>23</v>
+      </c>
+      <c r="B249" s="5">
+        <v>50</v>
+      </c>
+      <c r="C249" s="5">
+        <v>550</v>
+      </c>
+      <c r="D249" s="8">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E249" s="9"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>23</v>
+      </c>
+      <c r="B250" s="5">
+        <v>50</v>
+      </c>
+      <c r="C250" s="5">
+        <v>600</v>
+      </c>
+      <c r="D250" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E250" s="9"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>23</v>
+      </c>
+      <c r="B251" s="5">
+        <v>50</v>
+      </c>
+      <c r="C251" s="5">
+        <v>700</v>
+      </c>
+      <c r="D251" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E251" s="9"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>23</v>
+      </c>
+      <c r="B252" s="5">
+        <v>50</v>
+      </c>
+      <c r="C252" s="5">
+        <v>750</v>
+      </c>
+      <c r="D252" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E252" s="9"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="9">
+        <v>9</v>
+      </c>
+      <c r="B253" s="9">
+        <v>40</v>
+      </c>
+      <c r="C253" s="9">
+        <v>100</v>
+      </c>
+      <c r="D253" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="9">
+        <v>9</v>
+      </c>
+      <c r="B254" s="9">
+        <v>40</v>
+      </c>
+      <c r="C254" s="9">
+        <v>120</v>
+      </c>
+      <c r="D254" s="10">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="9">
+        <v>9</v>
+      </c>
+      <c r="B255" s="9">
+        <v>40</v>
+      </c>
+      <c r="C255" s="9">
+        <v>125</v>
+      </c>
+      <c r="D255" s="10">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="9">
+        <v>9</v>
+      </c>
+      <c r="B256" s="9">
+        <v>40</v>
+      </c>
+      <c r="C256" s="9">
+        <v>130</v>
+      </c>
+      <c r="D256" s="10">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="9">
+        <v>9</v>
+      </c>
+      <c r="B257" s="9">
+        <v>40</v>
+      </c>
+      <c r="C257" s="9">
+        <v>135</v>
+      </c>
+      <c r="D257" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="9">
+        <v>9</v>
+      </c>
+      <c r="B258" s="9">
+        <v>40</v>
+      </c>
+      <c r="C258" s="9">
+        <v>140</v>
+      </c>
+      <c r="D258" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="9">
+        <v>9</v>
+      </c>
+      <c r="B259" s="9">
+        <v>40</v>
+      </c>
+      <c r="C259" s="9">
+        <v>145</v>
+      </c>
+      <c r="D259" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="9">
+        <v>9</v>
+      </c>
+      <c r="B260" s="9">
+        <v>40</v>
+      </c>
+      <c r="C260" s="9">
+        <v>180</v>
+      </c>
+      <c r="D260" s="10">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="9">
+        <v>9</v>
+      </c>
+      <c r="B261" s="9">
+        <v>40</v>
+      </c>
+      <c r="C261" s="9">
+        <v>200</v>
+      </c>
+      <c r="D261" s="10">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="9">
+        <v>9</v>
+      </c>
+      <c r="B262" s="9">
+        <v>40</v>
+      </c>
+      <c r="C262" s="9">
+        <v>205</v>
+      </c>
+      <c r="D262" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="9">
+        <v>9</v>
+      </c>
+      <c r="B263" s="9">
+        <v>40</v>
+      </c>
+      <c r="C263" s="9">
+        <v>210</v>
+      </c>
+      <c r="D263" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="9">
+        <v>9</v>
+      </c>
+      <c r="B264" s="9">
+        <v>40</v>
+      </c>
+      <c r="C264" s="9">
+        <v>240</v>
+      </c>
+      <c r="D264" s="10">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="9">
+        <v>9</v>
+      </c>
+      <c r="B265" s="9">
+        <v>40</v>
+      </c>
+      <c r="C265" s="9">
+        <v>270</v>
+      </c>
+      <c r="D265" s="10">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="9">
+        <v>9</v>
+      </c>
+      <c r="B266" s="9">
+        <v>40</v>
+      </c>
+      <c r="C266" s="9">
+        <v>310</v>
+      </c>
+      <c r="D266" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="9">
+        <v>9</v>
+      </c>
+      <c r="B267" s="9">
+        <v>40</v>
+      </c>
+      <c r="C267" s="9">
+        <v>340</v>
+      </c>
+      <c r="D267" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="9">
+        <v>9</v>
+      </c>
+      <c r="B268" s="9">
+        <v>40</v>
+      </c>
+      <c r="C268" s="9">
+        <v>360</v>
+      </c>
+      <c r="D268" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="9">
+        <v>23</v>
+      </c>
+      <c r="B269" s="9">
+        <v>40</v>
+      </c>
+      <c r="C269" s="9">
+        <v>100</v>
+      </c>
+      <c r="D269" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="9">
+        <v>23</v>
+      </c>
+      <c r="B270" s="9">
+        <v>40</v>
+      </c>
+      <c r="C270" s="9">
+        <v>120</v>
+      </c>
+      <c r="D270" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="9">
+        <v>23</v>
+      </c>
+      <c r="B271" s="9">
+        <v>40</v>
+      </c>
+      <c r="C271" s="9">
+        <v>125</v>
+      </c>
+      <c r="D271" s="10">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="9">
+        <v>23</v>
+      </c>
+      <c r="B272" s="9">
+        <v>40</v>
+      </c>
+      <c r="C272" s="9">
+        <v>130</v>
+      </c>
+      <c r="D272" s="10">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="9">
+        <v>23</v>
+      </c>
+      <c r="B273" s="9">
+        <v>40</v>
+      </c>
+      <c r="C273" s="9">
+        <v>135</v>
+      </c>
+      <c r="D273" s="10">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="9">
+        <v>23</v>
+      </c>
+      <c r="B274" s="9">
+        <v>40</v>
+      </c>
+      <c r="C274" s="9">
+        <v>140</v>
+      </c>
+      <c r="D274" s="10">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="9">
+        <v>23</v>
+      </c>
+      <c r="B275" s="9">
+        <v>40</v>
+      </c>
+      <c r="C275" s="9">
+        <v>150</v>
+      </c>
+      <c r="D275" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="9">
+        <v>23</v>
+      </c>
+      <c r="B276" s="9">
+        <v>40</v>
+      </c>
+      <c r="C276" s="9">
+        <v>160</v>
+      </c>
+      <c r="D276" s="10">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="9">
+        <v>23</v>
+      </c>
+      <c r="B277" s="9">
+        <v>40</v>
+      </c>
+      <c r="C277" s="9">
+        <v>170</v>
+      </c>
+      <c r="D277" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="9">
+        <v>23</v>
+      </c>
+      <c r="B278" s="9">
+        <v>40</v>
+      </c>
+      <c r="C278" s="9">
+        <v>180</v>
+      </c>
+      <c r="D278" s="10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="9">
+        <v>23</v>
+      </c>
+      <c r="B279" s="9">
+        <v>40</v>
+      </c>
+      <c r="C279" s="9">
+        <v>200</v>
+      </c>
+      <c r="D279" s="10">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="9">
+        <v>23</v>
+      </c>
+      <c r="B280" s="9">
+        <v>40</v>
+      </c>
+      <c r="C280" s="9">
+        <v>205</v>
+      </c>
+      <c r="D280" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="9">
+        <v>23</v>
+      </c>
+      <c r="B281" s="9">
+        <v>40</v>
+      </c>
+      <c r="C281" s="9">
+        <v>210</v>
+      </c>
+      <c r="D281" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="9">
+        <v>23</v>
+      </c>
+      <c r="B282" s="9">
+        <v>40</v>
+      </c>
+      <c r="C282" s="9">
+        <v>240</v>
+      </c>
+      <c r="D282" s="10">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="9">
+        <v>23</v>
+      </c>
+      <c r="B283" s="9">
+        <v>40</v>
+      </c>
+      <c r="C283" s="9">
+        <v>270</v>
+      </c>
+      <c r="D283" s="10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="9">
+        <v>23</v>
+      </c>
+      <c r="B284" s="9">
+        <v>40</v>
+      </c>
+      <c r="C284" s="9">
+        <v>310</v>
+      </c>
+      <c r="D284" s="10">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="9">
+        <v>23</v>
+      </c>
+      <c r="B285" s="9">
+        <v>40</v>
+      </c>
+      <c r="C285" s="9">
+        <v>340</v>
+      </c>
+      <c r="D285" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="9">
+        <v>23</v>
+      </c>
+      <c r="B286" s="9">
+        <v>40</v>
+      </c>
+      <c r="C286" s="9">
+        <v>360</v>
+      </c>
+      <c r="D286" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="9">
+        <v>23</v>
+      </c>
+      <c r="B287" s="9">
+        <v>40</v>
+      </c>
+      <c r="C287" s="9">
+        <v>155</v>
+      </c>
+      <c r="D287" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>23</v>
+      </c>
+      <c r="B288" s="5">
+        <v>30</v>
+      </c>
+      <c r="C288" s="5">
+        <v>40</v>
+      </c>
+      <c r="D288" s="8">
+        <v>6.5333333299999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>23</v>
+      </c>
+      <c r="B289" s="5">
+        <v>30</v>
+      </c>
+      <c r="C289" s="5">
+        <v>50</v>
+      </c>
+      <c r="D289" s="8">
+        <v>6.1333333300000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>23</v>
+      </c>
+      <c r="B290" s="5">
+        <v>30</v>
+      </c>
+      <c r="C290" s="5">
+        <v>60</v>
+      </c>
+      <c r="D290" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>23</v>
+      </c>
+      <c r="B291" s="5">
+        <v>30</v>
+      </c>
+      <c r="C291" s="5">
+        <v>65</v>
+      </c>
+      <c r="D291" s="8">
+        <v>5.3333333300000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>23</v>
+      </c>
+      <c r="B292" s="5">
+        <v>30</v>
+      </c>
+      <c r="C292" s="5">
+        <v>70</v>
+      </c>
+      <c r="D292" s="8">
+        <v>5.2666666700000002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>23</v>
+      </c>
+      <c r="B293" s="5">
+        <v>30</v>
+      </c>
+      <c r="C293" s="5">
+        <v>71</v>
+      </c>
+      <c r="D293" s="8">
+        <v>5.2666666700000002</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>23</v>
+      </c>
+      <c r="B294" s="5">
+        <v>30</v>
+      </c>
+      <c r="C294" s="5">
+        <v>72</v>
+      </c>
+      <c r="D294" s="8">
+        <v>5.2666666700000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>23</v>
+      </c>
+      <c r="B295" s="5">
+        <v>30</v>
+      </c>
+      <c r="C295" s="5">
+        <v>73</v>
+      </c>
+      <c r="D295" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>23</v>
+      </c>
+      <c r="B296" s="5">
+        <v>30</v>
+      </c>
+      <c r="C296" s="5">
+        <v>80</v>
+      </c>
+      <c r="D296" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>23</v>
+      </c>
+      <c r="B297" s="5">
+        <v>30</v>
+      </c>
+      <c r="C297" s="5">
+        <v>90</v>
+      </c>
+      <c r="D297" s="8">
+        <v>4.93333333</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>23</v>
+      </c>
+      <c r="B298" s="5">
+        <v>30</v>
+      </c>
+      <c r="C298" s="5">
+        <v>100</v>
+      </c>
+      <c r="D298" s="8">
+        <v>4.8666666699999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
+        <v>23</v>
+      </c>
+      <c r="B299" s="5">
+        <v>30</v>
+      </c>
+      <c r="C299" s="5">
+        <v>105</v>
+      </c>
+      <c r="D299" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
+        <v>23</v>
+      </c>
+      <c r="B300" s="5">
+        <v>30</v>
+      </c>
+      <c r="C300" s="5">
+        <v>110</v>
+      </c>
+      <c r="D300" s="8">
+        <v>4.7333333299999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
+        <v>23</v>
+      </c>
+      <c r="B301" s="5">
+        <v>30</v>
+      </c>
+      <c r="C301" s="5">
+        <v>120</v>
+      </c>
+      <c r="D301" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
+        <v>23</v>
+      </c>
+      <c r="B302" s="5">
+        <v>30</v>
+      </c>
+      <c r="C302" s="5">
+        <v>130</v>
+      </c>
+      <c r="D302" s="8">
+        <v>4.4666666700000004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
+        <v>23</v>
+      </c>
+      <c r="B303" s="5">
+        <v>30</v>
+      </c>
+      <c r="C303" s="5">
+        <v>150</v>
+      </c>
+      <c r="D303" s="8">
+        <v>4.1333333300000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
+        <v>23</v>
+      </c>
+      <c r="B304" s="5">
+        <v>30</v>
+      </c>
+      <c r="C304" s="5">
+        <v>160</v>
+      </c>
+      <c r="D304" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
+        <v>23</v>
+      </c>
+      <c r="B305" s="5">
+        <v>30</v>
+      </c>
+      <c r="C305" s="5">
+        <v>62</v>
+      </c>
+      <c r="D305" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
+        <v>23</v>
+      </c>
+      <c r="B306" s="5">
+        <v>30</v>
+      </c>
+      <c r="C306" s="5">
+        <v>63</v>
+      </c>
+      <c r="D306" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
+        <v>23</v>
+      </c>
+      <c r="B307" s="5">
+        <v>30</v>
+      </c>
+      <c r="C307" s="5">
+        <v>64</v>
+      </c>
+      <c r="D307" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
+        <v>9</v>
+      </c>
+      <c r="B308" s="5">
+        <v>30</v>
+      </c>
+      <c r="C308" s="5">
+        <v>40</v>
+      </c>
+      <c r="D308" s="8">
+        <v>6.5333333299999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
+        <v>9</v>
+      </c>
+      <c r="B309" s="5">
+        <v>30</v>
+      </c>
+      <c r="C309" s="5">
+        <v>50</v>
+      </c>
+      <c r="D309" s="8">
+        <v>5.8666666699999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
+        <v>9</v>
+      </c>
+      <c r="B310" s="5">
+        <v>30</v>
+      </c>
+      <c r="C310" s="5">
+        <v>60</v>
+      </c>
+      <c r="D310" s="8">
+        <v>5.4666666700000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
+        <v>9</v>
+      </c>
+      <c r="B311" s="5">
+        <v>30</v>
+      </c>
+      <c r="C311" s="5">
+        <v>61</v>
+      </c>
+      <c r="D311" s="8">
+        <v>5.4666666700000004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
+        <v>9</v>
+      </c>
+      <c r="B312" s="5">
+        <v>30</v>
+      </c>
+      <c r="C312" s="5">
+        <v>62</v>
+      </c>
+      <c r="D312" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
+        <v>9</v>
+      </c>
+      <c r="B313" s="5">
+        <v>30</v>
+      </c>
+      <c r="C313" s="5">
+        <v>63</v>
+      </c>
+      <c r="D313" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
+        <v>9</v>
+      </c>
+      <c r="B314" s="5">
+        <v>30</v>
+      </c>
+      <c r="C314" s="5">
+        <v>64</v>
+      </c>
+      <c r="D314" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
+        <v>9</v>
+      </c>
+      <c r="B315" s="5">
+        <v>30</v>
+      </c>
+      <c r="C315" s="5">
+        <v>65</v>
+      </c>
+      <c r="D315" s="8">
+        <v>5.3333333300000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
+        <v>9</v>
+      </c>
+      <c r="B316" s="5">
+        <v>30</v>
+      </c>
+      <c r="C316" s="5">
+        <v>70</v>
+      </c>
+      <c r="D316" s="8">
+        <v>5.2666666700000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
+        <v>9</v>
+      </c>
+      <c r="B317" s="5">
+        <v>30</v>
+      </c>
+      <c r="C317" s="5">
+        <v>71</v>
+      </c>
+      <c r="D317" s="8">
+        <v>5.2666666700000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
+        <v>9</v>
+      </c>
+      <c r="B318" s="5">
+        <v>30</v>
+      </c>
+      <c r="C318" s="5">
+        <v>72</v>
+      </c>
+      <c r="D318" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
+        <v>9</v>
+      </c>
+      <c r="B319" s="5">
+        <v>30</v>
+      </c>
+      <c r="C319" s="5">
+        <v>73</v>
+      </c>
+      <c r="D319" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
+        <v>9</v>
+      </c>
+      <c r="B320" s="5">
+        <v>30</v>
+      </c>
+      <c r="C320" s="5">
+        <v>80</v>
+      </c>
+      <c r="D320" s="8">
+        <v>5.1333333300000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
+        <v>9</v>
+      </c>
+      <c r="B321" s="5">
+        <v>30</v>
+      </c>
+      <c r="C321" s="5">
+        <v>90</v>
+      </c>
+      <c r="D321" s="8">
+        <v>4.93333333</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
+        <v>9</v>
+      </c>
+      <c r="B322" s="5">
+        <v>30</v>
+      </c>
+      <c r="C322" s="5">
+        <v>100</v>
+      </c>
+      <c r="D322" s="8">
+        <v>4.6666666699999997</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
+        <v>9</v>
+      </c>
+      <c r="B323" s="5">
+        <v>30</v>
+      </c>
+      <c r="C323" s="5">
+        <v>105</v>
+      </c>
+      <c r="D323" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
+        <v>9</v>
+      </c>
+      <c r="B324" s="5">
+        <v>30</v>
+      </c>
+      <c r="C324" s="5">
+        <v>110</v>
+      </c>
+      <c r="D324" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
+        <v>9</v>
+      </c>
+      <c r="B325" s="5">
+        <v>30</v>
+      </c>
+      <c r="C325" s="5">
+        <v>120</v>
+      </c>
+      <c r="D325" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
+        <v>9</v>
+      </c>
+      <c r="B326" s="5">
+        <v>30</v>
+      </c>
+      <c r="C326" s="5">
+        <v>130</v>
+      </c>
+      <c r="D326" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
+        <v>9</v>
+      </c>
+      <c r="B327" s="5">
+        <v>30</v>
+      </c>
+      <c r="C327" s="5">
+        <v>150</v>
+      </c>
+      <c r="D327" s="8">
+        <v>4.2666666700000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
+        <v>9</v>
+      </c>
+      <c r="B328" s="5">
+        <v>30</v>
+      </c>
+      <c r="C328" s="5">
+        <v>160</v>
+      </c>
+      <c r="D328" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="9">
+        <v>9</v>
+      </c>
+      <c r="B329" s="9">
+        <v>20</v>
+      </c>
+      <c r="C329" s="9">
+        <v>15</v>
+      </c>
+      <c r="D329" s="10">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="9">
+        <v>9</v>
+      </c>
+      <c r="B330" s="9">
+        <v>20</v>
+      </c>
+      <c r="C330" s="9">
+        <v>17</v>
+      </c>
+      <c r="D330" s="10">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="9">
+        <v>9</v>
+      </c>
+      <c r="B331" s="9">
+        <v>20</v>
+      </c>
+      <c r="C331" s="9">
+        <v>20</v>
+      </c>
+      <c r="D331" s="10">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="9">
+        <v>9</v>
+      </c>
+      <c r="B332" s="9">
+        <v>20</v>
+      </c>
+      <c r="C332" s="9">
+        <v>23</v>
+      </c>
+      <c r="D332" s="10">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="9">
+        <v>9</v>
+      </c>
+      <c r="B333" s="9">
+        <v>20</v>
+      </c>
+      <c r="C333" s="9">
+        <v>25</v>
+      </c>
+      <c r="D333" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="9">
+        <v>9</v>
+      </c>
+      <c r="B334" s="9">
+        <v>20</v>
+      </c>
+      <c r="C334" s="9">
+        <v>27</v>
+      </c>
+      <c r="D334" s="10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="9">
+        <v>9</v>
+      </c>
+      <c r="B335" s="9">
+        <v>20</v>
+      </c>
+      <c r="C335" s="9">
+        <v>30</v>
+      </c>
+      <c r="D335" s="10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="9">
+        <v>9</v>
+      </c>
+      <c r="B336" s="9">
+        <v>20</v>
+      </c>
+      <c r="C336" s="9">
+        <v>33</v>
+      </c>
+      <c r="D336" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="9">
+        <v>9</v>
+      </c>
+      <c r="B337" s="9">
+        <v>20</v>
+      </c>
+      <c r="C337" s="9">
+        <v>35</v>
+      </c>
+      <c r="D337" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="9">
+        <v>9</v>
+      </c>
+      <c r="B338" s="9">
+        <v>20</v>
+      </c>
+      <c r="C338" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="D338" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="9">
+        <v>23</v>
+      </c>
+      <c r="B339" s="9">
+        <v>20</v>
+      </c>
+      <c r="C339" s="9">
+        <v>15</v>
+      </c>
+      <c r="D339" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="9">
+        <v>23</v>
+      </c>
+      <c r="B340" s="9">
+        <v>20</v>
+      </c>
+      <c r="C340" s="9">
+        <v>17</v>
+      </c>
+      <c r="D340" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="9">
+        <v>23</v>
+      </c>
+      <c r="B341" s="9">
+        <v>20</v>
+      </c>
+      <c r="C341" s="9">
+        <v>20</v>
+      </c>
+      <c r="D341" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="9">
+        <v>23</v>
+      </c>
+      <c r="B342" s="9">
+        <v>20</v>
+      </c>
+      <c r="C342" s="9">
+        <v>23</v>
+      </c>
+      <c r="D342" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="9">
+        <v>23</v>
+      </c>
+      <c r="B343" s="9">
+        <v>20</v>
+      </c>
+      <c r="C343" s="9">
+        <v>25</v>
+      </c>
+      <c r="D343" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="9">
+        <v>23</v>
+      </c>
+      <c r="B344" s="9">
+        <v>20</v>
+      </c>
+      <c r="C344" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="D344" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="9">
+        <v>9</v>
+      </c>
+      <c r="B345" s="9">
+        <v>100</v>
+      </c>
+      <c r="C345" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D345" s="10">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="9">
+        <v>9</v>
+      </c>
+      <c r="B346" s="9">
+        <v>100</v>
+      </c>
+      <c r="C346" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D346" s="10">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="9">
+        <v>9</v>
+      </c>
+      <c r="B347" s="9">
+        <v>100</v>
+      </c>
+      <c r="C347" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D347" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="9">
+        <v>9</v>
+      </c>
+      <c r="B348" s="9">
+        <v>100</v>
+      </c>
+      <c r="C348" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D348" s="10">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="9">
+        <v>9</v>
+      </c>
+      <c r="B349" s="9">
+        <v>100</v>
+      </c>
+      <c r="C349" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D349" s="10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="9">
+        <v>9</v>
+      </c>
+      <c r="B350" s="9">
+        <v>100</v>
+      </c>
+      <c r="C350" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D350" s="10">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="9">
+        <v>9</v>
+      </c>
+      <c r="B351" s="9">
+        <v>100</v>
+      </c>
+      <c r="C351" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D351" s="10">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="9">
+        <v>9</v>
+      </c>
+      <c r="B352" s="9">
+        <v>100</v>
+      </c>
+      <c r="C352" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D352" s="9">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="9">
+        <v>9</v>
+      </c>
+      <c r="B353" s="9">
+        <v>100</v>
+      </c>
+      <c r="C353" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D353" s="10">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="9">
+        <v>9</v>
+      </c>
+      <c r="B354" s="9">
+        <v>100</v>
+      </c>
+      <c r="C354" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D354" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="9">
+        <v>9</v>
+      </c>
+      <c r="B355" s="9">
+        <v>100</v>
+      </c>
+      <c r="C355" s="9">
+        <v>13000</v>
+      </c>
+      <c r="D355" s="10">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="9">
+        <v>9</v>
+      </c>
+      <c r="B356" s="9">
+        <v>100</v>
+      </c>
+      <c r="C356" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D356" s="10">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="9">
+        <v>9</v>
+      </c>
+      <c r="B357" s="9">
+        <v>100</v>
+      </c>
+      <c r="C357" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D357" s="10">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="9">
+        <v>13</v>
+      </c>
+      <c r="B358" s="9">
+        <v>100</v>
+      </c>
+      <c r="C358" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D358" s="10">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="9">
+        <v>13</v>
+      </c>
+      <c r="B359" s="9">
+        <v>100</v>
+      </c>
+      <c r="C359" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D359" s="10">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="9">
+        <v>13</v>
+      </c>
+      <c r="B360" s="9">
+        <v>100</v>
+      </c>
+      <c r="C360" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D360" s="10">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="9">
+        <v>13</v>
+      </c>
+      <c r="B361" s="9">
+        <v>100</v>
+      </c>
+      <c r="C361" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D361" s="10">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="9">
+        <v>13</v>
+      </c>
+      <c r="B362" s="9">
+        <v>100</v>
+      </c>
+      <c r="C362" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D362" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="9">
+        <v>13</v>
+      </c>
+      <c r="B363" s="9">
+        <v>100</v>
+      </c>
+      <c r="C363" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D363" s="10">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="9">
+        <v>13</v>
+      </c>
+      <c r="B364" s="9">
+        <v>100</v>
+      </c>
+      <c r="C364" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D364" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="9">
+        <v>13</v>
+      </c>
+      <c r="B365" s="9">
+        <v>100</v>
+      </c>
+      <c r="C365" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D365" s="10">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="9">
+        <v>13</v>
+      </c>
+      <c r="B366" s="9">
+        <v>100</v>
+      </c>
+      <c r="C366" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D366" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="9">
+        <v>13</v>
+      </c>
+      <c r="B367" s="9">
+        <v>100</v>
+      </c>
+      <c r="C367" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D367" s="10">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="9">
+        <v>13</v>
+      </c>
+      <c r="B368" s="9">
+        <v>100</v>
+      </c>
+      <c r="C368" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D368" s="10">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="9">
+        <v>23</v>
+      </c>
+      <c r="B369" s="9">
+        <v>100</v>
+      </c>
+      <c r="C369" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D369" s="10">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="9">
+        <v>23</v>
+      </c>
+      <c r="B370" s="9">
+        <v>100</v>
+      </c>
+      <c r="C370" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D370" s="10">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="9">
+        <v>23</v>
+      </c>
+      <c r="B371" s="9">
+        <v>100</v>
+      </c>
+      <c r="C371" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D371" s="10">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="9">
+        <v>23</v>
+      </c>
+      <c r="B372" s="9">
+        <v>100</v>
+      </c>
+      <c r="C372" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D372" s="10">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="9">
+        <v>23</v>
+      </c>
+      <c r="B373" s="9">
+        <v>100</v>
+      </c>
+      <c r="C373" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D373" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="9">
+        <v>23</v>
+      </c>
+      <c r="B374" s="9">
+        <v>100</v>
+      </c>
+      <c r="C374" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D374" s="10">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="9">
+        <v>23</v>
+      </c>
+      <c r="B375" s="9">
+        <v>100</v>
+      </c>
+      <c r="C375" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D375" s="10">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="9">
+        <v>23</v>
+      </c>
+      <c r="B376" s="9">
+        <v>100</v>
+      </c>
+      <c r="C376" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D376" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="9">
+        <v>23</v>
+      </c>
+      <c r="B377" s="9">
+        <v>100</v>
+      </c>
+      <c r="C377" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D377" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="9">
+        <v>23</v>
+      </c>
+      <c r="B378" s="9">
+        <v>100</v>
+      </c>
+      <c r="C378" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D378" s="10">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="9">
+        <v>23</v>
+      </c>
+      <c r="B379" s="9">
+        <v>100</v>
+      </c>
+      <c r="C379" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D379" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="9">
+        <v>47</v>
+      </c>
+      <c r="B380" s="9">
+        <v>100</v>
+      </c>
+      <c r="C380" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D380" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="9">
+        <v>47</v>
+      </c>
+      <c r="B381" s="9">
+        <v>100</v>
+      </c>
+      <c r="C381" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D381" s="10">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="9">
+        <v>47</v>
+      </c>
+      <c r="B382" s="9">
+        <v>100</v>
+      </c>
+      <c r="C382" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D382" s="10">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="9">
+        <v>47</v>
+      </c>
+      <c r="B383" s="9">
+        <v>100</v>
+      </c>
+      <c r="C383" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D383" s="10">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="9">
+        <v>47</v>
+      </c>
+      <c r="B384" s="9">
+        <v>100</v>
+      </c>
+      <c r="C384" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D384" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="9">
+        <v>47</v>
+      </c>
+      <c r="B385" s="9">
+        <v>100</v>
+      </c>
+      <c r="C385" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D385" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="9">
+        <v>47</v>
+      </c>
+      <c r="B386" s="9">
+        <v>100</v>
+      </c>
+      <c r="C386" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D386" s="10">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="9">
+        <v>47</v>
+      </c>
+      <c r="B387" s="9">
+        <v>100</v>
+      </c>
+      <c r="C387" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D387" s="10">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="9">
+        <v>47</v>
+      </c>
+      <c r="B388" s="9">
+        <v>100</v>
+      </c>
+      <c r="C388" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D388" s="10">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="9">
+        <v>47</v>
+      </c>
+      <c r="B389" s="9">
+        <v>100</v>
+      </c>
+      <c r="C389" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D389" s="10">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="9">
+        <v>47</v>
+      </c>
+      <c r="B390" s="9">
+        <v>100</v>
+      </c>
+      <c r="C390" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D390" s="10">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="9">
+        <v>49</v>
+      </c>
+      <c r="B391" s="9">
+        <v>100</v>
+      </c>
+      <c r="C391" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D391" s="10">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="9">
+        <v>49</v>
+      </c>
+      <c r="B392" s="9">
+        <v>100</v>
+      </c>
+      <c r="C392" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D392" s="10">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="9">
+        <v>49</v>
+      </c>
+      <c r="B393" s="9">
+        <v>100</v>
+      </c>
+      <c r="C393" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D393" s="10">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="9">
+        <v>49</v>
+      </c>
+      <c r="B394" s="9">
+        <v>100</v>
+      </c>
+      <c r="C394" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D394" s="10">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="9">
+        <v>49</v>
+      </c>
+      <c r="B395" s="9">
+        <v>100</v>
+      </c>
+      <c r="C395" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D395" s="10">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="9">
+        <v>49</v>
+      </c>
+      <c r="B396" s="9">
+        <v>100</v>
+      </c>
+      <c r="C396" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D396" s="10">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="9">
+        <v>49</v>
+      </c>
+      <c r="B397" s="9">
+        <v>100</v>
+      </c>
+      <c r="C397" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D397" s="10">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="9">
+        <v>49</v>
+      </c>
+      <c r="B398" s="9">
+        <v>100</v>
+      </c>
+      <c r="C398" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D398" s="10">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="9">
+        <v>49</v>
+      </c>
+      <c r="B399" s="9">
+        <v>100</v>
+      </c>
+      <c r="C399" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D399" s="10">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="9">
+        <v>49</v>
+      </c>
+      <c r="B400" s="9">
+        <v>100</v>
+      </c>
+      <c r="C400" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D400" s="10">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="9">
+        <v>49</v>
+      </c>
+      <c r="B401" s="9">
+        <v>100</v>
+      </c>
+      <c r="C401" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D401" s="10">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>49</v>
+      </c>
+      <c r="B402">
+        <v>100</v>
+      </c>
+      <c r="C402">
+        <v>17000</v>
+      </c>
+      <c r="D402" s="3">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>49</v>
+      </c>
+      <c r="B403">
+        <v>100</v>
+      </c>
+      <c r="C403">
+        <v>17500</v>
+      </c>
+      <c r="D403" s="3">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>49</v>
+      </c>
+      <c r="B404">
+        <v>100</v>
+      </c>
+      <c r="C404">
+        <v>18000</v>
+      </c>
+      <c r="D404" s="3">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="9">
+        <v>50</v>
+      </c>
+      <c r="B405" s="9">
+        <v>100</v>
+      </c>
+      <c r="C405" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D405" s="10">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="9">
+        <v>50</v>
+      </c>
+      <c r="B406" s="9">
+        <v>100</v>
+      </c>
+      <c r="C406" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D406" s="10">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="9">
+        <v>50</v>
+      </c>
+      <c r="B407" s="9">
+        <v>100</v>
+      </c>
+      <c r="C407" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D407" s="10">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="9">
+        <v>50</v>
+      </c>
+      <c r="B408" s="9">
+        <v>100</v>
+      </c>
+      <c r="C408" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D408" s="10">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="9">
+        <v>50</v>
+      </c>
+      <c r="B409" s="9">
+        <v>100</v>
+      </c>
+      <c r="C409" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D409" s="10">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="9">
+        <v>50</v>
+      </c>
+      <c r="B410" s="9">
+        <v>100</v>
+      </c>
+      <c r="C410" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D410" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="9">
+        <v>50</v>
+      </c>
+      <c r="B411" s="9">
+        <v>100</v>
+      </c>
+      <c r="C411" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D411" s="10">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="9">
+        <v>50</v>
+      </c>
+      <c r="B412" s="9">
+        <v>100</v>
+      </c>
+      <c r="C412" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D412" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="9">
+        <v>50</v>
+      </c>
+      <c r="B413" s="9">
+        <v>100</v>
+      </c>
+      <c r="C413" s="9">
+        <v>17500</v>
+      </c>
+      <c r="D413" s="10">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="9">
+        <v>50</v>
+      </c>
+      <c r="B414" s="9">
+        <v>100</v>
+      </c>
+      <c r="C414" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D414" s="10">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="9">
+        <v>50</v>
+      </c>
+      <c r="B415" s="9">
+        <v>100</v>
+      </c>
+      <c r="C415" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D415" s="10">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="9">
+        <v>50</v>
+      </c>
+      <c r="B416" s="9">
+        <v>100</v>
+      </c>
+      <c r="C416" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D416" s="10">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="9">
+        <v>50</v>
+      </c>
+      <c r="B417" s="9">
+        <v>100</v>
+      </c>
+      <c r="C417" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D417" s="10">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="9">
+        <v>50</v>
+      </c>
+      <c r="B418" s="9">
+        <v>100</v>
+      </c>
+      <c r="C418" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D418" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="9">
+        <v>69</v>
+      </c>
+      <c r="B419" s="9">
+        <v>100</v>
+      </c>
+      <c r="C419" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D419" s="9">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>69</v>
+      </c>
+      <c r="B420" s="9">
+        <v>100</v>
+      </c>
+      <c r="C420" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D420" s="9">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>69</v>
+      </c>
+      <c r="B421" s="9">
+        <v>100</v>
+      </c>
+      <c r="C421" s="9">
+        <v>6000</v>
+      </c>
+      <c r="D421" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>69</v>
+      </c>
+      <c r="B422" s="9">
+        <v>100</v>
+      </c>
+      <c r="C422" s="9">
+        <v>6500</v>
+      </c>
+      <c r="D422" s="10">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="9">
+        <v>69</v>
+      </c>
+      <c r="B423" s="9">
+        <v>100</v>
+      </c>
+      <c r="C423" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D423" s="10">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="9">
+        <v>69</v>
+      </c>
+      <c r="B424" s="9">
+        <v>100</v>
+      </c>
+      <c r="C424" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D424" s="10">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="9">
+        <v>69</v>
+      </c>
+      <c r="B425" s="9">
+        <v>100</v>
+      </c>
+      <c r="C425" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D425" s="10">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="9">
+        <v>69</v>
+      </c>
+      <c r="B426" s="9">
+        <v>100</v>
+      </c>
+      <c r="C426" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D426" s="10">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="9">
+        <v>69</v>
+      </c>
+      <c r="B427" s="9">
+        <v>100</v>
+      </c>
+      <c r="C427" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D427" s="10">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="9">
+        <v>69</v>
+      </c>
+      <c r="B428" s="9">
+        <v>100</v>
+      </c>
+      <c r="C428" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D428" s="10">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="9">
+        <v>69</v>
+      </c>
+      <c r="B429" s="9">
+        <v>100</v>
+      </c>
+      <c r="C429" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D429" s="10">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="9">
+        <v>69</v>
+      </c>
+      <c r="B430" s="9">
+        <v>100</v>
+      </c>
+      <c r="C430" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D430" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="9">
+        <v>69</v>
+      </c>
+      <c r="B431" s="9">
+        <v>100</v>
+      </c>
+      <c r="C431" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D431" s="10">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="9">
+        <v>69</v>
+      </c>
+      <c r="B432" s="9">
+        <v>100</v>
+      </c>
+      <c r="C432" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D432" s="10">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="9">
+        <v>69</v>
+      </c>
+      <c r="B433" s="9">
+        <v>100</v>
+      </c>
+      <c r="C433" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D433" s="10">
+        <v>3.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2140,11 +6727,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EC4438-9CE9-BE43-AAD8-863CCA6632C9}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>85</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5">
+        <v>135</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>105</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="9">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9">
+        <v>140</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9">
+        <v>145</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>180</v>
+      </c>
+      <c r="D21">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9">
+        <v>155</v>
+      </c>
+      <c r="D22" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>360</v>
+      </c>
+      <c r="D23">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>49</v>
+      </c>
+      <c r="B24" s="9">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9">
+        <v>201</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>49</v>
+      </c>
+      <c r="B25" s="9">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9">
+        <v>202</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>69</v>
+      </c>
+      <c r="B27" s="9">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9">
+        <v>128</v>
+      </c>
+      <c r="D27" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>420</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5">
+        <v>660</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5">
+        <v>370</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>47</v>
+      </c>
+      <c r="B31" s="4">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4">
+        <v>340</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5">
+        <v>400</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4">
+        <v>429</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>69</v>
+      </c>
+      <c r="B34" s="5">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5">
+        <v>325</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>9</v>
+      </c>
+      <c r="B35" s="9">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D35" s="9">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>13</v>
+      </c>
+      <c r="B36" s="9">
+        <v>100</v>
+      </c>
+      <c r="C36" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D36" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>23</v>
+      </c>
+      <c r="B37" s="9">
+        <v>100</v>
+      </c>
+      <c r="C37" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>47</v>
+      </c>
+      <c r="B38" s="9">
+        <v>100</v>
+      </c>
+      <c r="C38" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D38" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>17500</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>18000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>50</v>
+      </c>
+      <c r="B41" s="9">
+        <v>100</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="10">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>69</v>
+      </c>
+      <c r="B42" s="9">
+        <v>100</v>
+      </c>
+      <c r="C42" s="9">
+        <v>6500</v>
+      </c>
+      <c r="D42" s="10">
+        <v>5.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6CE38F-59B0-104F-86B3-9A5DADD82410}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
